--- a/docs/llm能力测试数据集.xlsx
+++ b/docs/llm能力测试数据集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200" activeTab="1"/>
+    <workbookView windowWidth="24750" windowHeight="12200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>√用户被多次扣款属于明显的软件缺陷，导致错误操作。</t>
   </si>
   <si>
-    <t>deepseek-v1</t>
+    <t>deepseek-r1</t>
   </si>
   <si>
     <t>no</t>
@@ -76,7 +76,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>deepseek-v1 89.4%</t>
+    <t>deepseek-r1 89.4%</t>
   </si>
   <si>
     <t>该表记录判断题，T/F表示是否回答正确</t>
@@ -404,7 +404,7 @@
     <t>chatgpt-4o output</t>
   </si>
   <si>
-    <t>deepseek-v1 output</t>
+    <t>deepseek-r1 output</t>
   </si>
   <si>
     <t>qwen2.5-Max output</t>
@@ -445,7 +445,7 @@
   </si>
   <si>
     <t>chatgpt-4o 54.5%
-deepseek-v1 72.7%
+deepseek-r1 72.7%
 qwen2.5-Max 72.7%
 GLM 4 PLUS 54.5%</t>
   </si>
@@ -1519,7 +1519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1540,12 +1540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1876,7 +1870,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E3" sqref="E3:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6363636363636" defaultRowHeight="14"/>
@@ -3690,7 +3684,7 @@
   <sheetPr/>
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -3753,13 +3747,13 @@
       <c r="F2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>126</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>128</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -3785,7 +3779,7 @@
       <c r="F3" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>134</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -3811,7 +3805,7 @@
       <c r="F4" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H4" t="s">
@@ -3828,16 +3822,16 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>143</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>145</v>
       </c>
       <c r="H5" t="s">
@@ -3863,7 +3857,7 @@
       <c r="F6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>150</v>
       </c>
       <c r="H6" t="s">
@@ -3889,7 +3883,7 @@
       <c r="F7" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>156</v>
       </c>
       <c r="H7" t="s">
@@ -3915,7 +3909,7 @@
       <c r="F8" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>161</v>
       </c>
       <c r="H8" t="s">
@@ -3932,16 +3926,16 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>166</v>
       </c>
       <c r="H9" t="s">
@@ -3958,7 +3952,7 @@
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>169</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -3967,7 +3961,7 @@
       <c r="F10" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>135</v>
       </c>
       <c r="H10" t="s">
@@ -3984,16 +3978,16 @@
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>177</v>
       </c>
       <c r="H11" t="s">
@@ -4010,16 +4004,16 @@
       <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>183</v>
       </c>
       <c r="H12" t="s">
@@ -4363,8 +4357,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -4449,10 +4443,10 @@
       <c r="I2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4480,7 +4474,7 @@
       <c r="I3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4508,7 +4502,7 @@
       <c r="I4" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4536,7 +4530,7 @@
       <c r="I5" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>214</v>
       </c>
     </row>
